--- a/Program/Other/Sharepoint上傳用/測試FT/L7/L7022 L7202/FT_L7022 L7202.xlsx
+++ b/Program/Other/Sharepoint上傳用/測試FT/L7/L7022 L7202/FT_L7022 L7202.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\測試FT\L7\L7022 L7202\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C926D7-263E-4516-90C2-BC9EF718C364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADFFFB2D-67B7-4688-853B-27DDDB9DA1D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="81">
   <si>
     <t>目錄名稱</t>
   </si>
@@ -147,9 +147,6 @@
     <t>Ias39LGD.Date/YYY/MM/DD</t>
   </si>
   <si>
-    <t>Ias39LGD.Type Ias39LGD.TypeDesc</t>
-  </si>
-  <si>
     <t>Ias39LGD.LGDPercent/99.99999</t>
   </si>
   <si>
@@ -167,18 +164,9 @@
     <t>功能</t>
   </si>
   <si>
-    <t>類別型態</t>
-  </si>
-  <si>
     <t>違約損失率％</t>
   </si>
   <si>
-    <t>1.限輸入數字，檢核條件：不可輸入0/V(2)2.Ias39LGD.Type</t>
-  </si>
-  <si>
-    <t>1.限輸入文數字，檢核條件：不可為空白/V(7)2.Ias39LGD.TypeDesc</t>
-  </si>
-  <si>
     <t>1.限輸入數字，檢核條件：不可輸入0/V(2)2.Ias39LGD.LGDPercent</t>
   </si>
   <si>
@@ -205,10 +193,6 @@
   </si>
   <si>
     <t>連結至【L7202違約損失率登錄】</t>
-  </si>
-  <si>
-    <t>1.自動顯示原值，可以修改2.限輸入文數字，檢核條件：不可為空白/V(7)3.Ias39LGD.TypeDesc</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>1.自動顯示原值，可以修改2.限輸入數字，檢核條件：不可輸入0/V(2)3.Ias39LGD.LGDPercent</t>
@@ -266,13 +250,6 @@
     <t>Ready</t>
   </si>
   <si>
-    <t>製作依據之需求規格書與版本：PJ201800012_URS_7介接外部系統_V1.8.docx</t>
-  </si>
-  <si>
-    <t>製作依據之需求規格書與版本：PJ201800012_URS_7介接外部系統_V1.8.docx</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>cu31780005</t>
   </si>
   <si>
@@ -302,6 +279,46 @@
   </si>
   <si>
     <t>L7202違約損失率登錄_修改</t>
+  </si>
+  <si>
+    <t>[輸出按鈕]複製</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.連結至【L7202違約損失率登錄】，供複製[違約損失率檔(Ias39LGD)]資料</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ias39LGD.Type</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>L7202違約損失率登錄_複製</t>
+  </si>
+  <si>
+    <t>L7202違約損失率登錄_複製</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.限輸入代碼,檢核條件：依選單/V(H)2.Ias39LGD.Type
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>依據[L7022違約損失率檔查詢]複製按鈕處理</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.自動顯示原複製資料,限輸入日期，檢核條件：(1).不可為空白/V(7)
+(2).日期格式/A(DATE,0)2.Ias39LGD.Date</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.自動顯示原複製資料,限輸入代碼,檢核條件：依選單/V(H)2.Ias39LGD.Type</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>製作依據之需求規格書與版本：PJ201800012_URS_7介接外部系統_V1.93.DOCX</t>
   </si>
 </sst>
 </file>
@@ -854,10 +871,10 @@
   <sheetPr codeName="工作表3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.2"/>
@@ -874,7 +891,9 @@
     <col min="11" max="11" width="11.36328125" style="13" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.7265625" style="13" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.6328125" style="5" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="5"/>
+    <col min="14" max="16" width="9" style="5"/>
+    <col min="17" max="17" width="9.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="3" customFormat="1" ht="64.8" x14ac:dyDescent="0.2">
@@ -915,19 +934,19 @@
         <v>11</v>
       </c>
       <c r="M1" s="24" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="N1" s="24" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="O1" s="24" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="P1" s="24" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="Q1" s="24" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -947,7 +966,7 @@
         <v>31</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="6" t="s">
@@ -957,7 +976,7 @@
         <v>13</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>26</v>
@@ -966,13 +985,13 @@
         <v>27</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="Q2" s="25">
-        <v>44578</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -989,7 +1008,7 @@
         <v>22</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>25</v>
@@ -1002,7 +1021,7 @@
         <v>15</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>26</v>
@@ -1011,13 +1030,13 @@
         <v>27</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="Q3" s="25">
-        <v>44578</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -1025,7 +1044,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>21</v>
@@ -1037,10 +1056,10 @@
         <v>32</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>16</v>
@@ -1049,22 +1068,22 @@
         <v>15</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L4" s="26" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="Q4" s="25">
-        <v>44578</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -1072,7 +1091,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>21</v>
@@ -1081,37 +1100,37 @@
         <v>21</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>56</v>
+        <v>71</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L5" s="26" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="Q5" s="25">
-        <v>44578</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -1128,13 +1147,13 @@
         <v>21</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>56</v>
+        <v>33</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>16</v>
@@ -1143,22 +1162,22 @@
         <v>17</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L6" s="26" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="Q6" s="25">
-        <v>44578</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -1175,13 +1194,13 @@
         <v>21</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>16</v>
@@ -1189,118 +1208,119 @@
       <c r="I7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q7" s="27">
-        <v>44578</v>
+      <c r="J7" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="L7" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q7" s="25">
+        <v>44608</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="81" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="12" t="s">
+      <c r="A8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q8" s="27">
+        <v>44608</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="81" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H8" s="12" t="s">
+      <c r="F9" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="L8" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q8" s="25">
-        <v>44578</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="81" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="K9" s="26" t="s">
-        <v>70</v>
+      <c r="J9" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="L9" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="M9" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q9" s="28">
-        <v>44578</v>
+        <v>64</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q9" s="25">
+        <v>44608</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -1308,19 +1328,19 @@
         <v>36</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>42</v>
+        <v>23</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>41</v>
       </c>
       <c r="H10" s="13" t="s">
         <v>16</v>
@@ -1329,44 +1349,44 @@
         <v>17</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K10" s="26" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L10" s="26" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="M10" s="16" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
       <c r="P10" s="16" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="Q10" s="28">
-        <v>44578</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>43</v>
+        <v>24</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>76</v>
       </c>
       <c r="H11" s="13" t="s">
         <v>16</v>
@@ -1375,44 +1395,44 @@
         <v>17</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K11" s="26" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L11" s="26" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="M11" s="16" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="N11" s="16"/>
       <c r="O11" s="16"/>
       <c r="P11" s="16" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="Q11" s="28">
-        <v>44578</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="13" t="s">
@@ -1422,47 +1442,47 @@
         <v>17</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="N12" s="9"/>
       <c r="O12" s="9"/>
       <c r="P12" s="9" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="Q12" s="27">
-        <v>44578</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C13" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>39</v>
-      </c>
       <c r="F13" s="20" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H13" s="12" t="s">
         <v>16</v>
@@ -1471,47 +1491,47 @@
         <v>17</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K13" s="26" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L13" s="26" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="M13" s="16" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="N13" s="16"/>
       <c r="O13" s="16"/>
       <c r="P13" s="16" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="Q13" s="28">
-        <v>44578</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>23</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="H14" s="13" t="s">
         <v>16</v>
@@ -1520,47 +1540,47 @@
         <v>17</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K14" s="26" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L14" s="26" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="M14" s="16" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="N14" s="16"/>
       <c r="O14" s="16"/>
       <c r="P14" s="16" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="Q14" s="28">
-        <v>44578</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>24</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="H15" s="13" t="s">
         <v>16</v>
@@ -1569,117 +1589,265 @@
         <v>17</v>
       </c>
       <c r="J15" s="17" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K15" s="26" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L15" s="26" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="M15" s="16" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="N15" s="16"/>
       <c r="O15" s="16"/>
       <c r="P15" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q15" s="28">
+        <v>44608</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="81" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="15"/>
+      <c r="H16" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q16" s="27">
+        <v>44608</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="81" x14ac:dyDescent="0.2">
+      <c r="A17" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="K17" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="L17" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="M17" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q17" s="28">
+        <v>44608</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="81" x14ac:dyDescent="0.2">
+      <c r="A18" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="Q15" s="28">
-        <v>44578</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="81" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="H16" s="13" t="s">
+      <c r="H18" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I16" s="13" t="s">
+      <c r="I18" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="J16" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="K16" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="L16" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="M16" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16" t="s">
+      <c r="J18" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="K18" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="L18" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="M18" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q18" s="28">
+        <v>44608</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="81" x14ac:dyDescent="0.2">
+      <c r="A19" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="Q16" s="28">
-        <v>44578</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="81" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="14" t="s">
+      <c r="H19" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I17" s="14" t="s">
+      <c r="I19" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="J17" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="K17" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="L17" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="M17" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q17" s="27">
-        <v>44578</v>
+      <c r="J19" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="K19" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="L19" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="M19" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q19" s="28">
+        <v>44608</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="81" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="15"/>
+      <c r="H20" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q20" s="27">
+        <v>44608</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/測試FT/L7/L7022 L7202/FT_L7022 L7202.xlsx
+++ b/Program/Other/Sharepoint上傳用/測試FT/L7/L7022 L7202/FT_L7022 L7202.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\測試FT\L7\L7022 L7202\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADFFFB2D-67B7-4688-853B-27DDDB9DA1D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07CF465-9EC9-4804-9BC0-B140C0AA8946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -873,7 +873,7 @@
   </sheetPr>
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
